--- a/output/02.compo-nutrient-patterns/fish_sp_relative_nut_fraction.xlsx
+++ b/output/02.compo-nutrient-patterns/fish_sp_relative_nut_fraction.xlsx
@@ -50,34 +50,34 @@
     <t xml:space="preserve">Zn</t>
   </si>
   <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sr</t>
   </si>
   <si>
-    <t xml:space="preserve">Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cd</t>
   </si>
   <si>
-    <t xml:space="preserve">As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co</t>
+    <t xml:space="preserve">Pb</t>
   </si>
   <si>
     <t xml:space="preserve">Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pb</t>
   </si>
   <si>
     <t xml:space="preserve">Demersal</t>
@@ -686,13 +686,13 @@
         <v>0.000504295781736061</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00241321478189574</v>
+        <v>0.0000644919674844881</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0000644919674844881</v>
+        <v>0.0000434080550376362</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0000434080550376362</v>
+        <v>0.0000302434102988301</v>
       </c>
       <c r="P2" t="n">
         <v>0.000029651740872367</v>
@@ -701,19 +701,19 @@
         <v>0.0000144503879155434</v>
       </c>
       <c r="R2" t="n">
+        <v>0.00000125160840213368</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.00241321478189574</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.00000157019963176771</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.0000302434102988301</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.00000125160840213368</v>
-      </c>
       <c r="U2" t="n">
+        <v>0.000000534778135457117</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.000000113782582012153</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.000000534778135457117</v>
       </c>
     </row>
     <row r="3">
@@ -754,13 +754,13 @@
         <v>0.000818159953450956</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00208439610614425</v>
+        <v>0.0000787531644368318</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0000787531644368318</v>
+        <v>0.0000507187838107039</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0000507187838107039</v>
+        <v>0.000121428275870377</v>
       </c>
       <c r="P3" t="n">
         <v>0.0000331349418699386</v>
@@ -769,19 +769,19 @@
         <v>0.000014391314609676</v>
       </c>
       <c r="R3" t="n">
+        <v>0.00000143414313701277</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.00208439610614425</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.0000109867835105065</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.000121428275870377</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.00000143414313701277</v>
-      </c>
       <c r="U3" t="n">
+        <v>0.000000785661022885258</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.000000399065916386163</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.000000785661022885258</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0.00112866419901845</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00140050001834921</v>
+        <v>0.000136516253505943</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000136516253505943</v>
+        <v>0.0000397722670492563</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0000397722670492563</v>
+        <v>0.0000917695200174876</v>
       </c>
       <c r="P4" t="n">
         <v>0.0000471870377793832</v>
@@ -837,19 +837,19 @@
         <v>0.0000151345794966197</v>
       </c>
       <c r="R4" t="n">
+        <v>0.00000119668768112807</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.00140050001834921</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.0000194989698630867</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.0000917695200174876</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.00000119668768112807</v>
-      </c>
       <c r="U4" t="n">
+        <v>0.00000307384482799562</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.00000175983482518833</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.00000307384482799562</v>
       </c>
     </row>
     <row r="5">
@@ -890,13 +890,13 @@
         <v>0.000754610074300447</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00146051164961297</v>
+        <v>0.000134288476190443</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000134288476190443</v>
+        <v>0.0000372782004923443</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0000372782004923443</v>
+        <v>0.0000210794339127139</v>
       </c>
       <c r="P5" t="n">
         <v>0.0000260442506825747</v>
@@ -905,19 +905,19 @@
         <v>0.0000103083060052194</v>
       </c>
       <c r="R5" t="n">
+        <v>0.00000084149436777301</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.00146051164961297</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.00000524531489245176</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.0000210794339127139</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.00000084149436777301</v>
-      </c>
       <c r="U5" t="n">
+        <v>0.000000434772090016055</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.000000182323779684152</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.000000434772090016055</v>
       </c>
     </row>
     <row r="6">
@@ -958,13 +958,13 @@
         <v>0.0010809286992369</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00107020665461831</v>
+        <v>0.0000560967026090874</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0000560967026090874</v>
+        <v>0.0000116418983124163</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0000116418983124163</v>
+        <v>0.000136210210255271</v>
       </c>
       <c r="P6" t="n">
         <v>0.0000549756309197436</v>
@@ -973,19 +973,19 @@
         <v>0.0000115844074565525</v>
       </c>
       <c r="R6" t="n">
+        <v>0.00000110669897537785</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.00107020665461831</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.0000260146122783623</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.000136210210255271</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.00000110669897537785</v>
-      </c>
       <c r="U6" t="n">
+        <v>0.000000201217995523245</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.000000273081565352975</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.000000201217995523245</v>
       </c>
     </row>
     <row r="7">
@@ -1026,13 +1026,13 @@
         <v>0.00101755727641511</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00096728232038646</v>
+        <v>0.0000560522395121846</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0000560522395121846</v>
+        <v>0.0000198637834058653</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0000198637834058653</v>
+        <v>0.000172577109773352</v>
       </c>
       <c r="P7" t="n">
         <v>0.0000486243036047801</v>
@@ -1041,19 +1041,19 @@
         <v>0.0000134150480888907</v>
       </c>
       <c r="R7" t="n">
+        <v>0.00000116105212865269</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.00096728232038646</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.0000034551792262315</v>
       </c>
-      <c r="S7" t="n">
-        <v>0.000172577109773352</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.00000116105212865269</v>
-      </c>
       <c r="U7" t="n">
+        <v>0.00000015387437849614</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.000000125897218769569</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.00000015387437849614</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         <v>0.000736388393813382</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00102333855686401</v>
+        <v>0.0000795626852444338</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0000795626852444338</v>
+        <v>0.0000373492031211244</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0000373492031211244</v>
+        <v>0.0000391680204871588</v>
       </c>
       <c r="P8" t="n">
         <v>0.0000540992421199526</v>
@@ -1109,19 +1109,19 @@
         <v>0.0000174691063295859</v>
       </c>
       <c r="R8" t="n">
+        <v>0.00000148043273979542</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.00102333855686401</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.00000444129821938626</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.0000391680204871588</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.00000148043273979542</v>
-      </c>
       <c r="U8" t="n">
+        <v>0.00000167077409205483</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.000000401831743658757</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.00000167077409205483</v>
       </c>
     </row>
     <row r="9">
@@ -1162,13 +1162,13 @@
         <v>0.00107773392440934</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00160034468816969</v>
+        <v>0.00008320461609182</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00008320461609182</v>
+        <v>0.0000395919634274323</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0000395919634274323</v>
+        <v>0.000125524341236873</v>
       </c>
       <c r="P9" t="n">
         <v>0.0000437230245257944</v>
@@ -1177,19 +1177,19 @@
         <v>0.0000145217834793569</v>
       </c>
       <c r="R9" t="n">
+        <v>0.00000168711273864407</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00160034468816969</v>
+      </c>
+      <c r="T9" t="n">
         <v>0.00000633849832649453</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.000125524341236873</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.00000168711273864407</v>
-      </c>
       <c r="U9" t="n">
+        <v>0.000000788370438618723</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.00000143483419828608</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.000000788370438618723</v>
       </c>
     </row>
     <row r="10">
@@ -1230,13 +1230,13 @@
         <v>0.000770828432372356</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00182773570224848</v>
+        <v>0.0000913628549463918</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0000913628549463918</v>
+        <v>0.0000498755039409583</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0000498755039409583</v>
+        <v>0.0000754681867712682</v>
       </c>
       <c r="P10" t="n">
         <v>0.0000803549785715439</v>
@@ -1245,19 +1245,19 @@
         <v>0.0000155672027452082</v>
       </c>
       <c r="R10" t="n">
+        <v>0.00000136024101657159</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.00182773570224848</v>
+      </c>
+      <c r="T10" t="n">
         <v>0.0000326709740461732</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.0000754681867712682</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.00000136024101657159</v>
-      </c>
       <c r="U10" t="n">
+        <v>0.00000103277558665621</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.000000604551562920707</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.00000103277558665621</v>
       </c>
     </row>
     <row r="11">
@@ -1298,13 +1298,13 @@
         <v>0.00107999382948555</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00116790674217908</v>
+        <v>0.000099417261660419</v>
       </c>
       <c r="N11" t="n">
-        <v>0.000099417261660419</v>
+        <v>0.000055860689101275</v>
       </c>
       <c r="O11" t="n">
-        <v>0.000055860689101275</v>
+        <v>0.0000891433243477396</v>
       </c>
       <c r="P11" t="n">
         <v>0.0000497393911215648</v>
@@ -1313,19 +1313,19 @@
         <v>0.0000189483394748818</v>
       </c>
       <c r="R11" t="n">
+        <v>0.00000163029544183237</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.00116790674217908</v>
+      </c>
+      <c r="T11" t="n">
         <v>0.0000394962141002407</v>
       </c>
-      <c r="S11" t="n">
-        <v>0.0000891433243477396</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.00000163029544183237</v>
-      </c>
       <c r="U11" t="n">
+        <v>0.00000209169981216228</v>
+      </c>
+      <c r="V11" t="n">
         <v>0.00000239930272571556</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.00000209169981216228</v>
       </c>
     </row>
     <row r="12">
@@ -1366,13 +1366,13 @@
         <v>0.000821726615466412</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00175236156130541</v>
+        <v>0.0000990493895828377</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0000990493895828377</v>
+        <v>0.0000210824939127557</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0000210824939127557</v>
+        <v>0.0000744863675841216</v>
       </c>
       <c r="P12" t="n">
         <v>0.0000408003754922494</v>
@@ -1381,19 +1381,19 @@
         <v>0.0000182766056320035</v>
       </c>
       <c r="R12" t="n">
+        <v>0.00000173259768155738</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.00175236156130541</v>
+      </c>
+      <c r="T12" t="n">
         <v>0.0000191352381113594</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.0000744863675841216</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.00000173259768155738</v>
-      </c>
       <c r="U12" t="n">
+        <v>0.00000147194139318149</v>
+      </c>
+      <c r="V12" t="n">
         <v>0.00000410916972263166</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.00000147194139318149</v>
       </c>
     </row>
     <row r="13">
@@ -1434,13 +1434,13 @@
         <v>0.000744357383602641</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00119791640232926</v>
+        <v>0.0000838425905988663</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0000838425905988663</v>
+        <v>0.0000352003204761797</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0000352003204761797</v>
+        <v>0.0000374867081730622</v>
       </c>
       <c r="P13" t="n">
         <v>0.0000503759047499931</v>
@@ -1449,19 +1449,19 @@
         <v>0.0000333410601512423</v>
       </c>
       <c r="R13" t="n">
+        <v>0.00000206026144114685</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.00119791640232926</v>
+      </c>
+      <c r="T13" t="n">
         <v>0.0000105274334614699</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.0000374867081730622</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.00000206026144114685</v>
-      </c>
       <c r="U13" t="n">
+        <v>0.00000429639885897697</v>
+      </c>
+      <c r="V13" t="n">
         <v>0.000000376877092892716</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.00000429639885897697</v>
       </c>
     </row>
     <row r="14">
@@ -1502,13 +1502,13 @@
         <v>0.000802265086943595</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00117245271593839</v>
+        <v>0.000074675815157623</v>
       </c>
       <c r="N14" t="n">
-        <v>0.000074675815157623</v>
+        <v>0.0000445388618941192</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0000445388618941192</v>
+        <v>0.0000511439448144716</v>
       </c>
       <c r="P14" t="n">
         <v>0.0000814828883813501</v>
@@ -1517,19 +1517,19 @@
         <v>0.0000266425210151217</v>
       </c>
       <c r="R14" t="n">
+        <v>0.00000216129624610919</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.00117245271593839</v>
+      </c>
+      <c r="T14" t="n">
         <v>0.000010766083169871</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.0000511439448144716</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.00000216129624610919</v>
-      </c>
       <c r="U14" t="n">
+        <v>0.00000177751466969727</v>
+      </c>
+      <c r="V14" t="n">
         <v>0.000000403980606749381</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.00000177751466969727</v>
       </c>
     </row>
     <row r="15">
@@ -1570,13 +1570,13 @@
         <v>0.000744179919583649</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00100551375796416</v>
+        <v>0.0000885642628478717</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0000885642628478717</v>
+        <v>0.000040985213609891</v>
       </c>
       <c r="O15" t="n">
-        <v>0.000040985213609891</v>
+        <v>0.0000555027340683742</v>
       </c>
       <c r="P15" t="n">
         <v>0.0000514023656946042</v>
@@ -1585,19 +1585,19 @@
         <v>0.0000213699378759098</v>
       </c>
       <c r="R15" t="n">
+        <v>0.00000162537124726021</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.00100551375796416</v>
+      </c>
+      <c r="T15" t="n">
         <v>0.0000166415851566074</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.0000555027340683742</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.00000162537124726021</v>
-      </c>
       <c r="U15" t="n">
+        <v>0.00000151455048040156</v>
+      </c>
+      <c r="V15" t="n">
         <v>0.000000424812939624828</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.00000151455048040156</v>
       </c>
     </row>
     <row r="16">
@@ -1638,13 +1638,13 @@
         <v>0.000494905259494438</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00136884621283006</v>
+        <v>0.0000592170416014638</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0000592170416014638</v>
+        <v>0.0000398199634075985</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0000398199634075985</v>
+        <v>0.0000833001927724528</v>
       </c>
       <c r="P16" t="n">
         <v>0.0000557665998073628</v>
@@ -1653,19 +1653,19 @@
         <v>0.0000252954685581056</v>
       </c>
       <c r="R16" t="n">
+        <v>0.00000193504506020531</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.00136884621283006</v>
+      </c>
+      <c r="T16" t="n">
         <v>0.0000117501531366684</v>
       </c>
-      <c r="S16" t="n">
-        <v>0.0000833001927724528</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.00000193504506020531</v>
-      </c>
       <c r="U16" t="n">
+        <v>0.00000121231738711658</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.000000233137959060881</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.00000121231738711658</v>
       </c>
     </row>
     <row r="17">
@@ -1706,13 +1706,13 @@
         <v>0.000862934253855596</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00175003653580192</v>
+        <v>0.0000748848980359754</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0000748848980359754</v>
+        <v>0.0000371794521487301</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0000371794521487301</v>
+        <v>0.0000552570264250672</v>
       </c>
       <c r="P17" t="n">
         <v>0.0000540112517812155</v>
@@ -1721,19 +1721,19 @@
         <v>0.0000266042096164778</v>
       </c>
       <c r="R17" t="n">
+        <v>0.00000193787166821378</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.00175003653580192</v>
+      </c>
+      <c r="T17" t="n">
         <v>0.000022313208065433</v>
       </c>
-      <c r="S17" t="n">
-        <v>0.0000552570264250672</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.00000193787166821378</v>
-      </c>
       <c r="U17" t="n">
+        <v>0.0000019101877872393</v>
+      </c>
+      <c r="V17" t="n">
         <v>0.000000193787166821378</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.0000019101877872393</v>
       </c>
     </row>
     <row r="18">
@@ -1774,13 +1774,13 @@
         <v>0.000969546799456129</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00144513473843025</v>
+        <v>0.000101030549681197</v>
       </c>
       <c r="N18" t="n">
-        <v>0.000101030549681197</v>
+        <v>0.0000503724956578947</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0000503724956578947</v>
+        <v>0.000051971622504177</v>
       </c>
       <c r="P18" t="n">
         <v>0.0000694858689158411</v>
@@ -1789,19 +1789,19 @@
         <v>0.0000270518958162768</v>
       </c>
       <c r="R18" t="n">
+        <v>0.00000182757353860842</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.00144513473843025</v>
+      </c>
+      <c r="T18" t="n">
         <v>0.0000123361213856069</v>
       </c>
-      <c r="S18" t="n">
-        <v>0.000051971622504177</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
+        <v>0.00000196083410913195</v>
+      </c>
+      <c r="V18" t="n">
         <v>0.00000182757353860842</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.00000182757353860842</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.00000196083410913195</v>
       </c>
     </row>
     <row r="19">
@@ -1818,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>0.334090749707792</v>
@@ -1842,13 +1842,13 @@
         <v>0.000594731497223912</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00118781954768077</v>
+        <v>0.000108590131906717</v>
       </c>
       <c r="N19" t="n">
-        <v>0.000108590131906717</v>
+        <v>0.000033580277971605</v>
       </c>
       <c r="O19" t="n">
-        <v>0.000033580277971605</v>
+        <v>0.0000779778697382997</v>
       </c>
       <c r="P19" t="n">
         <v>0.0000721890124692722</v>
@@ -1857,19 +1857,19 @@
         <v>0.0000273008395780836</v>
       </c>
       <c r="R19" t="n">
+        <v>0.00000191326638552607</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.00118781954768077</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.0000109890171886626</v>
       </c>
-      <c r="S19" t="n">
-        <v>0.0000779778697382997</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.00000191326638552607</v>
-      </c>
       <c r="U19" t="n">
+        <v>0.0000014472143172569</v>
+      </c>
+      <c r="V19" t="n">
         <v>0.000000735871686740797</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.0000014472143172569</v>
       </c>
     </row>
     <row r="20">
@@ -1910,13 +1910,13 @@
         <v>0.000618868402643979</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00128368714910736</v>
+        <v>0.0000839875168832107</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0000839875168832107</v>
+        <v>0.0000349348504380379</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0000349348504380379</v>
+        <v>0.0000539309563712052</v>
       </c>
       <c r="P20" t="n">
         <v>0.0000640472258030694</v>
@@ -1925,19 +1925,19 @@
         <v>0.0000244364108276365</v>
       </c>
       <c r="R20" t="n">
+        <v>0.00000200077328763537</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.00128368714910736</v>
+      </c>
+      <c r="T20" t="n">
         <v>0.0000129713054715237</v>
       </c>
-      <c r="S20" t="n">
-        <v>0.0000539309563712052</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.00000200077328763537</v>
-      </c>
       <c r="U20" t="n">
+        <v>0.00000139379712172352</v>
+      </c>
+      <c r="V20" t="n">
         <v>0.000000584495567174378</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.00000139379712172352</v>
       </c>
     </row>
     <row r="21">
@@ -1978,13 +1978,13 @@
         <v>0.00108736794968116</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00107751380439297</v>
+        <v>0.000136812758068851</v>
       </c>
       <c r="N21" t="n">
-        <v>0.000136812758068851</v>
+        <v>0.0000640638743311588</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0000640638743311588</v>
+        <v>0.000111258788084243</v>
       </c>
       <c r="P21" t="n">
         <v>0.0000738702997874368</v>
@@ -1993,19 +1993,19 @@
         <v>0.0000207104070463486</v>
       </c>
       <c r="R21" t="n">
+        <v>0.000001646334200689</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.00107751380439297</v>
+      </c>
+      <c r="T21" t="n">
         <v>0.0000249097522539031</v>
       </c>
-      <c r="S21" t="n">
-        <v>0.000111258788084243</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.000001646334200689</v>
-      </c>
       <c r="U21" t="n">
+        <v>0.00000376986672041829</v>
+      </c>
+      <c r="V21" t="n">
         <v>0.0000021473924356813</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.00000376986672041829</v>
       </c>
     </row>
     <row r="22">
@@ -2046,13 +2046,13 @@
         <v>0.000647365596603346</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00118047693639285</v>
+        <v>0.0000759815245214799</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0000759815245214799</v>
+        <v>0.0000405535565481625</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0000405535565481625</v>
+        <v>0.0000264049269613654</v>
       </c>
       <c r="P22" t="n">
         <v>0.0000424834847646078</v>
@@ -2061,19 +2061,19 @@
         <v>0.0000248760227898957</v>
       </c>
       <c r="R22" t="n">
+        <v>0.00000142864816022575</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.00118047693639285</v>
+      </c>
+      <c r="T22" t="n">
         <v>0.00000199258822347275</v>
       </c>
-      <c r="S22" t="n">
-        <v>0.0000264049269613654</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.00000142864816022575</v>
-      </c>
       <c r="U22" t="n">
+        <v>0.00000187980021082335</v>
+      </c>
+      <c r="V22" t="n">
         <v>0.000000726856081518363</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.00000187980021082335</v>
       </c>
     </row>
     <row r="23">
@@ -2114,13 +2114,13 @@
         <v>0.000858654319875257</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00135227980781606</v>
+        <v>0.0000938803349907068</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0000938803349907068</v>
+        <v>0.0000539102972951404</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0000539102972951404</v>
+        <v>0.0000343133370657607</v>
       </c>
       <c r="P23" t="n">
         <v>0.0000416416748209971</v>
@@ -2129,19 +2129,19 @@
         <v>0.0000250745568814606</v>
       </c>
       <c r="R23" t="n">
+        <v>0.00000176118911429307</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.00135227980781606</v>
+      </c>
+      <c r="T23" t="n">
         <v>0.00000358207955449438</v>
       </c>
-      <c r="S23" t="n">
-        <v>0.0000343133370657607</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.00000176118911429307</v>
-      </c>
       <c r="U23" t="n">
+        <v>0.000017447712496683</v>
+      </c>
+      <c r="V23" t="n">
         <v>0.00000155223447361423</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.000017447712496683</v>
       </c>
     </row>
     <row r="24">
@@ -2182,13 +2182,13 @@
         <v>0.000844190595323018</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00107172751535866</v>
+        <v>0.000100398353277247</v>
       </c>
       <c r="N24" t="n">
-        <v>0.000100398353277247</v>
+        <v>0.0000479616011166941</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0000479616011166941</v>
+        <v>0.0000342989491665379</v>
       </c>
       <c r="P24" t="n">
         <v>0.0000414149137239109</v>
@@ -2197,19 +2197,19 @@
         <v>0.0000207944297621011</v>
       </c>
       <c r="R24" t="n">
+        <v>0.00000154969894805012</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.00107172751535866</v>
+      </c>
+      <c r="T24" t="n">
         <v>0.00000972515156174311</v>
       </c>
-      <c r="S24" t="n">
-        <v>0.0000342989491665379</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.00000154969894805012</v>
-      </c>
       <c r="U24" t="n">
+        <v>0.00000551882584560707</v>
+      </c>
+      <c r="V24" t="n">
         <v>0.000000806475983168941</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.00000551882584560707</v>
       </c>
     </row>
     <row r="25">
@@ -2250,13 +2250,13 @@
         <v>0.00102957188449842</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00127256689444094</v>
+        <v>0.000119035696169698</v>
       </c>
       <c r="N25" t="n">
-        <v>0.000119035696169698</v>
+        <v>0.0000514228414961797</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0000514228414961797</v>
+        <v>0.000030309210715715</v>
       </c>
       <c r="P25" t="n">
         <v>0.000048381783564837</v>
@@ -2265,19 +2265,19 @@
         <v>0.0000268481971652822</v>
       </c>
       <c r="R25" t="n">
+        <v>0.0000018101535305611</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.00127256689444094</v>
+      </c>
+      <c r="T25" t="n">
         <v>0.00000577801006955102</v>
       </c>
-      <c r="S25" t="n">
-        <v>0.000030309210715715</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.0000018101535305611</v>
-      </c>
       <c r="U25" t="n">
+        <v>0.0000041271500496793</v>
+      </c>
+      <c r="V25" t="n">
         <v>0.000000897836151158304</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.0000041271500496793</v>
       </c>
     </row>
     <row r="26">
@@ -2318,13 +2318,13 @@
         <v>0.00151733194117208</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00114279853063465</v>
+        <v>0.000135075234011024</v>
       </c>
       <c r="N26" t="n">
-        <v>0.000135075234011024</v>
+        <v>0.0000539093233936396</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0000539093233936396</v>
+        <v>0.0000666943077751362</v>
       </c>
       <c r="P26" t="n">
         <v>0.0000610097788889007</v>
@@ -2333,19 +2333,19 @@
         <v>0.000012597582330302</v>
       </c>
       <c r="R26" t="n">
+        <v>0.00000122852455783111</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.00114279853063465</v>
+      </c>
+      <c r="T26" t="n">
         <v>0.00000893283110694144</v>
       </c>
-      <c r="S26" t="n">
-        <v>0.0000666943077751362</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
+        <v>0.000000707963304512841</v>
+      </c>
+      <c r="V26" t="n">
         <v>0.00000122852455783111</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.00000122852455783111</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.000000707963304512841</v>
       </c>
     </row>
     <row r="27">
@@ -2386,13 +2386,13 @@
         <v>0.000754682221531114</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00105901392453944</v>
+        <v>0.0000568689864910942</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0000568689864910942</v>
+        <v>0.0000344319489852141</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0000344319489852141</v>
+        <v>0.000107526831171037</v>
       </c>
       <c r="P27" t="n">
         <v>0.0000508287935371303</v>
@@ -2401,19 +2401,19 @@
         <v>0.0000154566258373841</v>
       </c>
       <c r="R27" t="n">
+        <v>0.00000121088773841258</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.00105901392453944</v>
+      </c>
+      <c r="T27" t="n">
         <v>0.0000071940977399806</v>
       </c>
-      <c r="S27" t="n">
-        <v>0.000107526831171037</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.00000121088773841258</v>
-      </c>
       <c r="U27" t="n">
+        <v>0.000000170948857187658</v>
+      </c>
+      <c r="V27" t="n">
         <v>0.0000000712286904948575</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.000000170948857187658</v>
       </c>
     </row>
     <row r="28">
@@ -2454,13 +2454,13 @@
         <v>0.00091725704320284</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00167049753331918</v>
+        <v>0.0000440742047396436</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0000440742047396436</v>
+        <v>0.000141375607415511</v>
       </c>
       <c r="O28" t="n">
-        <v>0.000141375607415511</v>
+        <v>0.000222646559506812</v>
       </c>
       <c r="P28" t="n">
         <v>0.0000498583879402603</v>
@@ -2469,19 +2469,19 @@
         <v>0.0000156999258302451</v>
       </c>
       <c r="R28" t="n">
+        <v>0.00000137294897948702</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.00167049753331918</v>
+      </c>
+      <c r="T28" t="n">
         <v>0.0000132337026633888</v>
       </c>
-      <c r="S28" t="n">
-        <v>0.000222646559506812</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.00000137294897948702</v>
-      </c>
       <c r="U28" t="n">
+        <v>0.000000381374716524173</v>
+      </c>
+      <c r="V28" t="n">
         <v>0.000000177974867711281</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.000000381374716524173</v>
       </c>
     </row>
     <row r="29">
@@ -2522,13 +2522,13 @@
         <v>0.000742825353381714</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0013744426189904</v>
+        <v>0.0000502570598891735</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0000502570598891735</v>
+        <v>0.0000334129128760898</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0000334129128760898</v>
+        <v>0.00016290324922372</v>
       </c>
       <c r="P29" t="n">
         <v>0.000035279385115505</v>
@@ -2537,19 +2537,19 @@
         <v>0.0000180221663773048</v>
       </c>
       <c r="R29" t="n">
+        <v>0.00000133100889204204</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0013744426189904</v>
+      </c>
+      <c r="T29" t="n">
         <v>0.00000989842245001377</v>
       </c>
-      <c r="S29" t="n">
-        <v>0.00016290324922372</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.00000133100889204204</v>
-      </c>
       <c r="U29" t="n">
+        <v>0.000000290680102859755</v>
+      </c>
+      <c r="V29" t="n">
         <v>0.000000305979055641848</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.000000290680102859755</v>
       </c>
     </row>
     <row r="30">
@@ -2566,7 +2566,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
         <v>0.410231847192656</v>
@@ -2590,13 +2590,13 @@
         <v>0.00087744400180089</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00155850479412616</v>
+        <v>0.0000849782097250331</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0000849782097250331</v>
+        <v>0.0000495211012383643</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0000495211012383643</v>
+        <v>0.0000768800531695829</v>
       </c>
       <c r="P30" t="n">
         <v>0.0000388361953946984</v>
@@ -2605,19 +2605,19 @@
         <v>0.0000176062079932161</v>
       </c>
       <c r="R30" t="n">
+        <v>0.00000147980702524053</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.00155850479412616</v>
+      </c>
+      <c r="T30" t="n">
         <v>0.0000104984734625332</v>
       </c>
-      <c r="S30" t="n">
-        <v>0.0000768800531695829</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.00000147980702524053</v>
-      </c>
       <c r="U30" t="n">
+        <v>0.000000722425476889079</v>
+      </c>
+      <c r="V30" t="n">
         <v>0.000000198084404953457</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.000000722425476889079</v>
       </c>
     </row>
     <row r="31">
@@ -2658,13 +2658,13 @@
         <v>0.000932654388697006</v>
       </c>
       <c r="M31" t="n">
-        <v>0.00095463768205937</v>
+        <v>0.000145469523226999</v>
       </c>
       <c r="N31" t="n">
-        <v>0.000145469523226999</v>
+        <v>0.0000502455475653045</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0000502455475653045</v>
+        <v>0.0000176448502208642</v>
       </c>
       <c r="P31" t="n">
         <v>0.0000514514407068718</v>
@@ -2673,19 +2673,19 @@
         <v>0.0000113797502209972</v>
       </c>
       <c r="R31" t="n">
+        <v>0.0000011643106194443</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.00095463768205937</v>
+      </c>
+      <c r="T31" t="n">
         <v>0.00000279988982294938</v>
       </c>
-      <c r="S31" t="n">
-        <v>0.0000176448502208642</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.0000011643106194443</v>
-      </c>
       <c r="U31" t="n">
+        <v>0.000000776207079629532</v>
+      </c>
+      <c r="V31" t="n">
         <v>0.000000277216814153404</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.000000776207079629532</v>
       </c>
     </row>
     <row r="32">
@@ -2726,13 +2726,13 @@
         <v>0.00141057463407071</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00125210414000532</v>
+        <v>0.000169194061332965</v>
       </c>
       <c r="N32" t="n">
-        <v>0.000169194061332965</v>
+        <v>0.0000770028072047026</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0000770028072047026</v>
+        <v>0.000010514071447947</v>
       </c>
       <c r="P32" t="n">
         <v>0.0000263440993191399</v>
@@ -2741,19 +2741,19 @@
         <v>0.0000517323739611937</v>
       </c>
       <c r="R32" t="n">
+        <v>0.00000282819356507665</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.00125210414000532</v>
+      </c>
+      <c r="T32" t="n">
         <v>0.00000302459589598475</v>
       </c>
-      <c r="S32" t="n">
-        <v>0.000010514071447947</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.00000282819356507665</v>
-      </c>
       <c r="U32" t="n">
+        <v>0.0000177285837366379</v>
+      </c>
+      <c r="V32" t="n">
         <v>0.000000471365594179441</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.0000177285837366379</v>
       </c>
     </row>
     <row r="33">
@@ -2794,13 +2794,13 @@
         <v>0.000924483457415623</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00102902044000656</v>
+        <v>0.000124440582820496</v>
       </c>
       <c r="N33" t="n">
-        <v>0.000124440582820496</v>
+        <v>0.000044718478437831</v>
       </c>
       <c r="O33" t="n">
-        <v>0.000044718478437831</v>
+        <v>0.0000319663882474669</v>
       </c>
       <c r="P33" t="n">
         <v>0.0000480142044498677</v>
@@ -2809,19 +2809,19 @@
         <v>0.00000799159706186672</v>
       </c>
       <c r="R33" t="n">
+        <v>0.000000818546329786888</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.00102902044000656</v>
+      </c>
+      <c r="T33" t="n">
         <v>0.0000172325543113029</v>
       </c>
-      <c r="S33" t="n">
-        <v>0.0000319663882474669</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.000000818546329786888</v>
-      </c>
       <c r="U33" t="n">
+        <v>0.000000667761479562988</v>
+      </c>
+      <c r="V33" t="n">
         <v>0.000000323110393336929</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.000000667761479562988</v>
       </c>
     </row>
     <row r="34">
@@ -2862,13 +2862,13 @@
         <v>0.00097485936088578</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00121637080755593</v>
+        <v>0.0000631422668610423</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0000631422668610423</v>
+        <v>0.0000508000107323966</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0000508000107323966</v>
+        <v>0.0000282131941807645</v>
       </c>
       <c r="P34" t="n">
         <v>0.0000241804148396523</v>
@@ -2877,19 +2877,19 @@
         <v>0.0000167978268522938</v>
       </c>
       <c r="R34" t="n">
+        <v>0.00000136594138973154</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.00121637080755593</v>
+      </c>
+      <c r="T34" t="n">
         <v>0.00000725249833119363</v>
       </c>
-      <c r="S34" t="n">
-        <v>0.0000282131941807645</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.00000136594138973154</v>
-      </c>
       <c r="U34" t="n">
+        <v>0.0000036099879585762</v>
+      </c>
+      <c r="V34" t="n">
         <v>0.000000292701726371043</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.0000036099879585762</v>
       </c>
     </row>
     <row r="35">
@@ -2930,13 +2930,13 @@
         <v>0.00139381337012955</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00144657626378311</v>
+        <v>0.000173012494569825</v>
       </c>
       <c r="N35" t="n">
-        <v>0.000173012494569825</v>
+        <v>0.0000154461718968352</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0000154461718968352</v>
+        <v>0.0000640593477273725</v>
       </c>
       <c r="P35" t="n">
         <v>0.0000345656125333159</v>
@@ -2945,19 +2945,19 @@
         <v>0.0000115116246275916</v>
       </c>
       <c r="R35" t="n">
+        <v>0.000000999006142581384</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.00144657626378311</v>
+      </c>
+      <c r="T35" t="n">
         <v>0.0000262969155377961</v>
       </c>
-      <c r="S35" t="n">
-        <v>0.0000640593477273725</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.000000999006142581384</v>
-      </c>
       <c r="U35" t="n">
+        <v>0.000000568665035007865</v>
+      </c>
+      <c r="V35" t="n">
         <v>0.00000371937671545685</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.000000568665035007865</v>
       </c>
     </row>
   </sheetData>

--- a/output/02.compo-nutrient-patterns/fish_sp_relative_nut_fraction.xlsx
+++ b/output/02.compo-nutrient-patterns/fish_sp_relative_nut_fraction.xlsx
@@ -242,7 +242,7 @@
     <t xml:space="preserve">Idiacanthus atlanticus</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomias sp</t>
+    <t xml:space="preserve">Stomias spp.</t>
   </si>
   <si>
     <t xml:space="preserve">Zoarcidae</t>
